--- a/workfiles/examples/PHUSE Connect Workshop/PHUSE Connect Examples.xlsx
+++ b/workfiles/examples/PHUSE Connect Workshop/PHUSE Connect Examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CDISC\ars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE24D31-F666-4C6B-8D3E-8C2FFE8588C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B760CE0E-A077-4283-B3E5-709C101E7FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{0614A9B4-62F8-4E97-B269-DF8F18CCF706}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -558,18 +558,12 @@
     <t>AnlsGrouping_03_AgeGp_2</t>
   </si>
   <si>
-    <t>Mth03.2_AgeGrp_ByTrt_%</t>
-  </si>
-  <si>
     <t>Mth03.3_Sex_ByTrt_n</t>
   </si>
   <si>
     <t>AnlsGrouping_01_Sex_2</t>
   </si>
   <si>
-    <t>Mth03.3_Sex_ByTrt_%</t>
-  </si>
-  <si>
     <t>Mth03.4_Ethnic_ByTrt_n</t>
   </si>
   <si>
@@ -579,9 +573,6 @@
     <t>AnlsGrouping_05_Ethnic_2</t>
   </si>
   <si>
-    <t>Mth03.4_Ethnic_ByTrt_%</t>
-  </si>
-  <si>
     <t>Mth03.5_Race_ByTrt_n</t>
   </si>
   <si>
@@ -612,9 +603,6 @@
     <t>AnlsGrouping_04_Race_9</t>
   </si>
   <si>
-    <t>Mth03.5_Race_ByTrt_%</t>
-  </si>
-  <si>
     <t>Mth03.6_Height_ByTrt_n</t>
   </si>
   <si>
@@ -642,21 +630,12 @@
     <t>Mth07.1_AnyAE_ByTrt_n</t>
   </si>
   <si>
-    <t>Mth07.1_AnyAE_ByTrt_%</t>
-  </si>
-  <si>
     <t>Mth07.2_Soc_ByTrt_n</t>
   </si>
   <si>
-    <t>Mth07.2_Soc_ByTrt_%</t>
-  </si>
-  <si>
     <t>Mth07.3_SocPt_ByTrt_n</t>
   </si>
   <si>
-    <t>Mth07.3_SocPt_ByTrt_%</t>
-  </si>
-  <si>
     <t>groupRef1_group_id</t>
   </si>
   <si>
@@ -1171,6 +1150,27 @@
   </si>
   <si>
     <t>190.5</t>
+  </si>
+  <si>
+    <t>Mth03.2_AgeGrp_ByTrt_pct</t>
+  </si>
+  <si>
+    <t>Mth03.3_Sex_ByTrt_pct</t>
+  </si>
+  <si>
+    <t>Mth03.4_Ethnic_ByTrt_pct</t>
+  </si>
+  <si>
+    <t>Mth03.5_Race_ByTrt_pct</t>
+  </si>
+  <si>
+    <t>Mth07.1_AnyAE_ByTrt_pct</t>
+  </si>
+  <si>
+    <t>Mth07.2_Soc_ByTrt_pct</t>
+  </si>
+  <si>
+    <t>Mth07.3_SocPt_ByTrt_pct</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1600,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>69</v>
@@ -1609,10 +1609,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1620,13 +1620,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1634,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1648,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1676,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1690,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1704,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -1718,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1746,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1774,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1808,7 +1808,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
         <v>105</v>
@@ -2107,23 +2107,23 @@
       </c>
       <c r="D19" s="11" t="str" cm="1">
         <f t="array" ref="D19:D22">_xlfn.TEXTAFTER(_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AnalysisResults!J$2:J$142&amp;"|"&amp;AnalysisResults!E$2:E$142,AnalysisResults!$A$2:$A$142='Demog Shell'!D18,""))),"|")</f>
-        <v>Mth03.2_AgeGrp_ByTrt_%</v>
+        <v>Mth03.2_AgeGrp_ByTrt_n</v>
       </c>
       <c r="E19" s="9" t="str" cm="1">
         <f t="array" ref="E19">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D19,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F19" s="10" t="str" cm="1">
         <f t="array" ref="F19">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D19)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B19)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B19)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B19)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G19" s="10" t="str" cm="1">
         <f t="array" ref="G19">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D19)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B19)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B19)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B19)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H19" s="10" t="str" cm="1">
         <f t="array" ref="H19">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D19)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B19)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B19)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B19)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -2135,23 +2135,23 @@
         <v>&lt; 65 years</v>
       </c>
       <c r="D20" s="11" t="str">
-        <v>Mth03.2_AgeGrp_ByTrt_n</v>
+        <v>Mth03.2_AgeGrp_ByTrt_pct</v>
       </c>
       <c r="E20" s="9" t="str" cm="1">
         <f t="array" ref="E20">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D20,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F20" s="10" t="str" cm="1">
         <f t="array" ref="F20">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D20)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B20)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B20)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B20)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G20" s="10" t="str" cm="1">
         <f t="array" ref="G20">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D20)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B20)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B20)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B20)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H20" s="10" t="str" cm="1">
         <f t="array" ref="H20">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D20)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B20)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B20)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B20)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -2163,23 +2163,23 @@
         <v>≥ 65 years</v>
       </c>
       <c r="D21" s="11" t="str">
-        <v>Mth03.2_AgeGrp_ByTrt_%</v>
+        <v>Mth03.2_AgeGrp_ByTrt_n</v>
       </c>
       <c r="E21" s="9" t="str" cm="1">
         <f t="array" ref="E21">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D21,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F21" s="10" t="str" cm="1">
         <f t="array" ref="F21">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D21)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B21)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B21)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B21)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G21" s="10" t="str" cm="1">
         <f t="array" ref="G21">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D21)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B21)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B21)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B21)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H21" s="10" t="str" cm="1">
         <f t="array" ref="H21">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D21)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B21)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B21)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B21)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -2191,23 +2191,23 @@
         <v>≥ 65 years</v>
       </c>
       <c r="D22" s="11" t="str">
-        <v>Mth03.2_AgeGrp_ByTrt_n</v>
+        <v>Mth03.2_AgeGrp_ByTrt_pct</v>
       </c>
       <c r="E22" s="9" t="str" cm="1">
         <f t="array" ref="E22">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D22,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F22" s="10" t="str" cm="1">
         <f t="array" ref="F22">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D22)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B22)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B22)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B22)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G22" s="10" t="str" cm="1">
         <f t="array" ref="G22">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D22)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B22)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B22)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B22)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H22" s="10" t="str" cm="1">
         <f t="array" ref="H22">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D22)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B22)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B22)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B22)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -2247,23 +2247,23 @@
       </c>
       <c r="D25" s="11" t="str" cm="1">
         <f t="array" ref="D25:D28">_xlfn.TEXTAFTER(_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AnalysisResults!J$2:J$142&amp;"|"&amp;AnalysisResults!E$2:E$142,AnalysisResults!$A$2:$A$142='Demog Shell'!D24,""))),"|")</f>
-        <v>Mth03.3_Sex_ByTrt_%</v>
+        <v>Mth03.3_Sex_ByTrt_n</v>
       </c>
       <c r="E25" s="9" t="str" cm="1">
         <f t="array" ref="E25">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D25,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F25" s="10" t="str" cm="1">
         <f t="array" ref="F25">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D25)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B25)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B25)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B25)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G25" s="10" t="str" cm="1">
         <f t="array" ref="G25">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D25)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B25)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B25)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B25)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H25" s="10" t="str" cm="1">
         <f t="array" ref="H25">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D25)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B25)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B25)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B25)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -2275,23 +2275,23 @@
         <v>Male</v>
       </c>
       <c r="D26" s="11" t="str">
-        <v>Mth03.3_Sex_ByTrt_n</v>
+        <v>Mth03.3_Sex_ByTrt_pct</v>
       </c>
       <c r="E26" s="9" t="str" cm="1">
         <f t="array" ref="E26">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D26,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F26" s="10" t="str" cm="1">
         <f t="array" ref="F26">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D26)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B26)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B26)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B26)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G26" s="10" t="str" cm="1">
         <f t="array" ref="G26">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D26)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B26)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B26)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B26)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H26" s="10" t="str" cm="1">
         <f t="array" ref="H26">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D26)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B26)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B26)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B26)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -2303,23 +2303,23 @@
         <v>Female</v>
       </c>
       <c r="D27" s="11" t="str">
-        <v>Mth03.3_Sex_ByTrt_%</v>
+        <v>Mth03.3_Sex_ByTrt_n</v>
       </c>
       <c r="E27" s="9" t="str" cm="1">
         <f t="array" ref="E27">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D27,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F27" s="10" t="str" cm="1">
         <f t="array" ref="F27">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D27)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B27)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B27)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B27)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G27" s="10" t="str" cm="1">
         <f t="array" ref="G27">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D27)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B27)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B27)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B27)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H27" s="10" t="str" cm="1">
         <f t="array" ref="H27">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D27)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B27)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B27)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B27)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -2331,23 +2331,23 @@
         <v>Female</v>
       </c>
       <c r="D28" s="11" t="str">
-        <v>Mth03.3_Sex_ByTrt_n</v>
+        <v>Mth03.3_Sex_ByTrt_pct</v>
       </c>
       <c r="E28" s="9" t="str" cm="1">
         <f t="array" ref="E28">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D28,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F28" s="10" t="str" cm="1">
         <f t="array" ref="F28">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D28)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B28)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B28)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B28)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G28" s="10" t="str" cm="1">
         <f t="array" ref="G28">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D28)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B28)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B28)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B28)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H28" s="10" t="str" cm="1">
         <f t="array" ref="H28">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D28)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B28)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B28)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B28)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -2387,23 +2387,23 @@
       </c>
       <c r="D31" s="11" t="str" cm="1">
         <f t="array" ref="D31:D34">_xlfn.TEXTAFTER(_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AnalysisResults!J$2:J$142&amp;"|"&amp;AnalysisResults!E$2:E$142,AnalysisResults!$A$2:$A$142='Demog Shell'!D30,""))),"|")</f>
-        <v>Mth03.4_Ethnic_ByTrt_%</v>
+        <v>Mth03.4_Ethnic_ByTrt_n</v>
       </c>
       <c r="E31" s="9" t="str" cm="1">
         <f t="array" ref="E31">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D31,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F31" s="10" t="str" cm="1">
         <f t="array" ref="F31">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D31)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B31)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B31)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B31)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G31" s="10" t="str" cm="1">
         <f t="array" ref="G31">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D31)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B31)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B31)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B31)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H31" s="10" t="str" cm="1">
         <f t="array" ref="H31">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D31)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B31)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B31)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B31)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -2415,23 +2415,23 @@
         <v>Hispanic or Latino</v>
       </c>
       <c r="D32" s="11" t="str">
-        <v>Mth03.4_Ethnic_ByTrt_n</v>
+        <v>Mth03.4_Ethnic_ByTrt_pct</v>
       </c>
       <c r="E32" s="9" t="str" cm="1">
         <f t="array" ref="E32">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D32,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F32" s="10" t="str" cm="1">
         <f t="array" ref="F32">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D32)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B32)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B32)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B32)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G32" s="10" t="str" cm="1">
         <f t="array" ref="G32">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D32)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B32)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B32)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B32)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H32" s="10" t="str" cm="1">
         <f t="array" ref="H32">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D32)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B32)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B32)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B32)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -2443,23 +2443,23 @@
         <v>Not Hispanic or Latino</v>
       </c>
       <c r="D33" s="11" t="str">
-        <v>Mth03.4_Ethnic_ByTrt_%</v>
+        <v>Mth03.4_Ethnic_ByTrt_n</v>
       </c>
       <c r="E33" s="9" t="str" cm="1">
         <f t="array" ref="E33">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D33,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F33" s="10" t="str" cm="1">
         <f t="array" ref="F33">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D33)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B33)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B33)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B33)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G33" s="10" t="str" cm="1">
         <f t="array" ref="G33">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D33)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B33)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B33)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B33)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H33" s="10" t="str" cm="1">
         <f t="array" ref="H33">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D33)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B33)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B33)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B33)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -2471,23 +2471,23 @@
         <v>Not Hispanic or Latino</v>
       </c>
       <c r="D34" s="11" t="str">
-        <v>Mth03.4_Ethnic_ByTrt_n</v>
+        <v>Mth03.4_Ethnic_ByTrt_pct</v>
       </c>
       <c r="E34" s="9" t="str" cm="1">
         <f t="array" ref="E34">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D34,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F34" s="10" t="str" cm="1">
         <f t="array" ref="F34">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D34)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B34)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B34)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B34)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G34" s="10" t="str" cm="1">
         <f t="array" ref="G34">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D34)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B34)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B34)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B34)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H34" s="10" t="str" cm="1">
         <f t="array" ref="H34">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D34)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B34)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B34)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B34)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
@@ -2527,23 +2527,23 @@
       </c>
       <c r="D37" s="11" t="str" cm="1">
         <f t="array" ref="D37:D54">_xlfn.TEXTAFTER(_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AnalysisResults!J$2:J$142&amp;"|"&amp;AnalysisResults!E$2:E$142,AnalysisResults!$A$2:$A$142='Demog Shell'!D36,""))),"|")</f>
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E37" s="9" t="str" cm="1">
         <f t="array" ref="E37">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D37,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F37" s="10" t="str" cm="1">
         <f t="array" ref="F37">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D37)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B37)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B37)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B37)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G37" s="10" t="str" cm="1">
         <f t="array" ref="G37">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D37)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B37)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B37)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B37)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H37" s="10" t="str" cm="1">
         <f t="array" ref="H37">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D37)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B37)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B37)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B37)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
@@ -2555,23 +2555,23 @@
         <v>American Indian or Alaska Native</v>
       </c>
       <c r="D38" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E38" s="9" t="str" cm="1">
         <f t="array" ref="E38">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D38,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F38" s="10" t="str" cm="1">
         <f t="array" ref="F38">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D38)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B38)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B38)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B38)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G38" s="10" t="str" cm="1">
         <f t="array" ref="G38">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D38)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B38)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B38)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B38)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H38" s="10" t="str" cm="1">
         <f t="array" ref="H38">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D38)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B38)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B38)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B38)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -2583,23 +2583,23 @@
         <v>Asian</v>
       </c>
       <c r="D39" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E39" s="9" t="str" cm="1">
         <f t="array" ref="E39">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D39,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F39" s="10" t="str" cm="1">
         <f t="array" ref="F39">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D39)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B39)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B39)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B39)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G39" s="10" t="str" cm="1">
         <f t="array" ref="G39">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D39)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B39)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B39)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B39)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H39" s="10" t="str" cm="1">
         <f t="array" ref="H39">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D39)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B39)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B39)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B39)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -2611,23 +2611,23 @@
         <v>Asian</v>
       </c>
       <c r="D40" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E40" s="9" t="str" cm="1">
         <f t="array" ref="E40">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D40,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F40" s="10" t="str" cm="1">
         <f t="array" ref="F40">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D40)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B40)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B40)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B40)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G40" s="10" t="str" cm="1">
         <f t="array" ref="G40">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D40)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B40)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B40)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B40)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H40" s="10" t="str" cm="1">
         <f t="array" ref="H40">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D40)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B40)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B40)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B40)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -2639,23 +2639,23 @@
         <v>Black or African American</v>
       </c>
       <c r="D41" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E41" s="9" t="str" cm="1">
         <f t="array" ref="E41">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D41,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F41" s="10" t="str" cm="1">
         <f t="array" ref="F41">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D41)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B41)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B41)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B41)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G41" s="10" t="str" cm="1">
         <f t="array" ref="G41">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D41)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B41)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B41)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B41)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H41" s="10" t="str" cm="1">
         <f t="array" ref="H41">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D41)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B41)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B41)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B41)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -2667,23 +2667,23 @@
         <v>Black or African American</v>
       </c>
       <c r="D42" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E42" s="9" t="str" cm="1">
         <f t="array" ref="E42">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D42,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F42" s="10" t="str" cm="1">
         <f t="array" ref="F42">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D42)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B42)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B42)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B42)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G42" s="10" t="str" cm="1">
         <f t="array" ref="G42">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D42)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B42)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B42)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B42)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H42" s="10" t="str" cm="1">
         <f t="array" ref="H42">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D42)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B42)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B42)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B42)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -2695,23 +2695,23 @@
         <v>Native Hawaiian or Other Pacific Islander</v>
       </c>
       <c r="D43" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E43" s="9" t="str" cm="1">
         <f t="array" ref="E43">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D43,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F43" s="10" t="str" cm="1">
         <f t="array" ref="F43">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D43)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B43)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B43)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B43)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G43" s="10" t="str" cm="1">
         <f t="array" ref="G43">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D43)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B43)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B43)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B43)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H43" s="10" t="str" cm="1">
         <f t="array" ref="H43">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D43)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B43)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B43)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B43)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
@@ -2723,23 +2723,23 @@
         <v>Native Hawaiian or Other Pacific Islander</v>
       </c>
       <c r="D44" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E44" s="9" t="str" cm="1">
         <f t="array" ref="E44">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D44,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F44" s="10" t="str" cm="1">
         <f t="array" ref="F44">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D44)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B44)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B44)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B44)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G44" s="10" t="str" cm="1">
         <f t="array" ref="G44">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D44)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B44)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B44)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B44)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H44" s="10" t="str" cm="1">
         <f t="array" ref="H44">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D44)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B44)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B44)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B44)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -2751,23 +2751,23 @@
         <v>White</v>
       </c>
       <c r="D45" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E45" s="9" t="str" cm="1">
         <f t="array" ref="E45">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D45,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F45" s="10" t="str" cm="1">
         <f t="array" ref="F45">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D45)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B45)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B45)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B45)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G45" s="10" t="str" cm="1">
         <f t="array" ref="G45">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D45)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B45)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B45)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B45)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H45" s="10" t="str" cm="1">
         <f t="array" ref="H45">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D45)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B45)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B45)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B45)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -2779,23 +2779,23 @@
         <v>White</v>
       </c>
       <c r="D46" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E46" s="9" t="str" cm="1">
         <f t="array" ref="E46">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D46,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F46" s="10" t="str" cm="1">
         <f t="array" ref="F46">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D46)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B46)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B46)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B46)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G46" s="10" t="str" cm="1">
         <f t="array" ref="G46">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D46)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B46)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B46)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B46)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H46" s="10" t="str" cm="1">
         <f t="array" ref="H46">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D46)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B46)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B46)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B46)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
@@ -2807,23 +2807,23 @@
         <v>Multiple</v>
       </c>
       <c r="D47" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E47" s="9" t="str" cm="1">
         <f t="array" ref="E47">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D47,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F47" s="10" t="str" cm="1">
         <f t="array" ref="F47">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D47)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B47)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B47)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B47)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G47" s="10" t="str" cm="1">
         <f t="array" ref="G47">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D47)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B47)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B47)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B47)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H47" s="10" t="str" cm="1">
         <f t="array" ref="H47">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D47)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B47)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B47)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B47)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -2835,23 +2835,23 @@
         <v>Multiple</v>
       </c>
       <c r="D48" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E48" s="9" t="str" cm="1">
         <f t="array" ref="E48">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D48,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F48" s="10" t="str" cm="1">
         <f t="array" ref="F48">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D48)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B48)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B48)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B48)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G48" s="10" t="str" cm="1">
         <f t="array" ref="G48">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D48)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B48)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B48)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B48)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H48" s="10" t="str" cm="1">
         <f t="array" ref="H48">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D48)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B48)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B48)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B48)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.45">
@@ -2863,23 +2863,23 @@
         <v>Not Reported</v>
       </c>
       <c r="D49" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E49" s="9" t="str" cm="1">
         <f t="array" ref="E49">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D49,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F49" s="10" t="str" cm="1">
         <f t="array" ref="F49">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D49)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B49)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B49)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B49)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G49" s="10" t="str" cm="1">
         <f t="array" ref="G49">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D49)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B49)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B49)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B49)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H49" s="10" t="str" cm="1">
         <f t="array" ref="H49">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D49)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B49)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B49)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B49)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
@@ -2891,23 +2891,23 @@
         <v>Not Reported</v>
       </c>
       <c r="D50" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E50" s="9" t="str" cm="1">
         <f t="array" ref="E50">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D50,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F50" s="10" t="str" cm="1">
         <f t="array" ref="F50">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D50)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B50)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B50)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B50)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G50" s="10" t="str" cm="1">
         <f t="array" ref="G50">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D50)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B50)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B50)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B50)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H50" s="10" t="str" cm="1">
         <f t="array" ref="H50">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D50)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B50)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B50)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B50)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.45">
@@ -2919,23 +2919,23 @@
         <v>Unknown</v>
       </c>
       <c r="D51" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E51" s="9" t="str" cm="1">
         <f t="array" ref="E51">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D51,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F51" s="10" t="str" cm="1">
         <f t="array" ref="F51">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D51)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B51)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B51)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B51)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G51" s="10" t="str" cm="1">
         <f t="array" ref="G51">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D51)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B51)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B51)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B51)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H51" s="10" t="str" cm="1">
         <f t="array" ref="H51">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D51)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B51)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B51)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B51)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.45">
@@ -2947,23 +2947,23 @@
         <v>Unknown</v>
       </c>
       <c r="D52" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E52" s="9" t="str" cm="1">
         <f t="array" ref="E52">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D52,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F52" s="10" t="str" cm="1">
         <f t="array" ref="F52">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D52)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B52)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B52)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B52)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G52" s="10" t="str" cm="1">
         <f t="array" ref="G52">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D52)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B52)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B52)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B52)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H52" s="10" t="str" cm="1">
         <f t="array" ref="H52">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D52)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B52)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B52)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B52)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.45">
@@ -2975,23 +2975,23 @@
         <v>Other</v>
       </c>
       <c r="D53" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E53" s="9" t="str" cm="1">
         <f t="array" ref="E53">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D53,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F53" s="10" t="str" cm="1">
         <f t="array" ref="F53">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D53)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B53)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B53)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B53)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="G53" s="10" t="str" cm="1">
         <f t="array" ref="G53">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D53)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B53)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B53)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B53)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
       <c r="H53" s="10" t="str" cm="1">
         <f t="array" ref="H53">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D53)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B53)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B53)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B53)),"")</f>
-        <v>( XX.X)</v>
+        <v>XX</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
@@ -3003,23 +3003,23 @@
         <v>Other</v>
       </c>
       <c r="D54" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E54" s="9" t="str" cm="1">
         <f t="array" ref="E54">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Shell'!D54,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F54" s="10" t="str" cm="1">
         <f t="array" ref="F54">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D54)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B54)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B54)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B54)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="G54" s="10" t="str" cm="1">
         <f t="array" ref="G54">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D54)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B54)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B54)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B54)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
       <c r="H54" s="10" t="str" cm="1">
         <f t="array" ref="H54">_xlfn._xlws.FILTER(AnalysisResults!$G$2:$G$142,(AnalysisResults!$E$2:$E$142='Demog Shell'!$D54)*(AnalysisResults!$H$2:$H$142='Demog Shell'!$F$4)*((AnalysisResults!$H$2:$H$142='Demog Shell'!$B54)+(AnalysisResults!$J$2:$J$142='Demog Shell'!$B54)+(AnalysisResults!$L$2:$L$142='Demog Shell'!$B54)),"")</f>
-        <v>XX</v>
+        <v>( XX.X)</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.45">
@@ -3225,7 +3225,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
         <v>105</v>
@@ -3526,23 +3526,23 @@
       </c>
       <c r="D19" s="11" t="str" cm="1">
         <f t="array" ref="D19:D22">_xlfn.TEXTAFTER(_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AnalysisResults!J$2:J$142&amp;"|"&amp;AnalysisResults!E$2:E$142,AnalysisResults!$A$2:$A$142='Demog Display'!D18,""))),"|")</f>
-        <v>Mth03.2_AgeGrp_ByTrt_%</v>
+        <v>Mth03.2_AgeGrp_ByTrt_n</v>
       </c>
       <c r="E19" s="9" t="str" cm="1">
         <f t="array" ref="E19">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D19,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F19" s="10" t="str" cm="1">
         <f t="array" ref="F19">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D19)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B19)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B19)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B19)),"")</f>
-        <v>( 16.3)</v>
+        <v>14</v>
       </c>
       <c r="G19" s="10" t="str" cm="1">
         <f t="array" ref="G19">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D19)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B19)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B19)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B19)),"")</f>
-        <v>(  9.5)</v>
+        <v>8</v>
       </c>
       <c r="H19" s="10" t="str" cm="1">
         <f t="array" ref="H19">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D19)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B19)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B19)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B19)),"")</f>
-        <v>( 13.1)</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -3554,23 +3554,23 @@
         <v>&lt; 65 years</v>
       </c>
       <c r="D20" s="11" t="str">
-        <v>Mth03.2_AgeGrp_ByTrt_n</v>
+        <v>Mth03.2_AgeGrp_ByTrt_pct</v>
       </c>
       <c r="E20" s="9" t="str" cm="1">
         <f t="array" ref="E20">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D20,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F20" s="10" t="str" cm="1">
         <f t="array" ref="F20">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D20)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B20)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B20)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B20)),"")</f>
-        <v>14</v>
+        <v>( 16.3)</v>
       </c>
       <c r="G20" s="10" t="str" cm="1">
         <f t="array" ref="G20">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D20)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B20)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B20)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B20)),"")</f>
-        <v>8</v>
+        <v>(  9.5)</v>
       </c>
       <c r="H20" s="10" t="str" cm="1">
         <f t="array" ref="H20">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D20)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B20)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B20)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B20)),"")</f>
-        <v>11</v>
+        <v>( 13.1)</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -3582,23 +3582,23 @@
         <v>≥ 65 years</v>
       </c>
       <c r="D21" s="11" t="str">
-        <v>Mth03.2_AgeGrp_ByTrt_%</v>
+        <v>Mth03.2_AgeGrp_ByTrt_n</v>
       </c>
       <c r="E21" s="9" t="str" cm="1">
         <f t="array" ref="E21">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D21,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F21" s="10" t="str" cm="1">
         <f t="array" ref="F21">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D21)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B21)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B21)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B21)),"")</f>
-        <v>( 83.7)</v>
+        <v>72</v>
       </c>
       <c r="G21" s="10" t="str" cm="1">
         <f t="array" ref="G21">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D21)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B21)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B21)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B21)),"")</f>
-        <v>( 90.5)</v>
+        <v>76</v>
       </c>
       <c r="H21" s="10" t="str" cm="1">
         <f t="array" ref="H21">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D21)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B21)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B21)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B21)),"")</f>
-        <v>( 86.9)</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -3610,23 +3610,23 @@
         <v>≥ 65 years</v>
       </c>
       <c r="D22" s="11" t="str">
-        <v>Mth03.2_AgeGrp_ByTrt_n</v>
+        <v>Mth03.2_AgeGrp_ByTrt_pct</v>
       </c>
       <c r="E22" s="9" t="str" cm="1">
         <f t="array" ref="E22">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D22,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F22" s="10" t="str" cm="1">
         <f t="array" ref="F22">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D22)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B22)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B22)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B22)),"")</f>
-        <v>72</v>
+        <v>( 83.7)</v>
       </c>
       <c r="G22" s="10" t="str" cm="1">
         <f t="array" ref="G22">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D22)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B22)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B22)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B22)),"")</f>
-        <v>76</v>
+        <v>( 90.5)</v>
       </c>
       <c r="H22" s="10" t="str" cm="1">
         <f t="array" ref="H22">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D22)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B22)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B22)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B22)),"")</f>
-        <v>73</v>
+        <v>( 86.9)</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -3666,23 +3666,23 @@
       </c>
       <c r="D25" s="11" t="str" cm="1">
         <f t="array" ref="D25:D28">_xlfn.TEXTAFTER(_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AnalysisResults!J$2:J$142&amp;"|"&amp;AnalysisResults!E$2:E$142,AnalysisResults!$A$2:$A$142='Demog Display'!D24,""))),"|")</f>
-        <v>Mth03.3_Sex_ByTrt_%</v>
+        <v>Mth03.3_Sex_ByTrt_n</v>
       </c>
       <c r="E25" s="9" t="str" cm="1">
         <f t="array" ref="E25">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D25,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F25" s="10" t="str" cm="1">
         <f t="array" ref="F25">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D25)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B25)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B25)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B25)),"")</f>
-        <v>( 38.4)</v>
+        <v>33</v>
       </c>
       <c r="G25" s="10" t="str" cm="1">
         <f t="array" ref="G25">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D25)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B25)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B25)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B25)),"")</f>
-        <v>( 40.5)</v>
+        <v>34</v>
       </c>
       <c r="H25" s="10" t="str" cm="1">
         <f t="array" ref="H25">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D25)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B25)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B25)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B25)),"")</f>
-        <v>( 52.4)</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -3694,23 +3694,23 @@
         <v>Male</v>
       </c>
       <c r="D26" s="11" t="str">
-        <v>Mth03.3_Sex_ByTrt_n</v>
+        <v>Mth03.3_Sex_ByTrt_pct</v>
       </c>
       <c r="E26" s="9" t="str" cm="1">
         <f t="array" ref="E26">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D26,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F26" s="10" t="str" cm="1">
         <f t="array" ref="F26">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D26)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B26)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B26)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B26)),"")</f>
-        <v>33</v>
+        <v>( 38.4)</v>
       </c>
       <c r="G26" s="10" t="str" cm="1">
         <f t="array" ref="G26">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D26)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B26)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B26)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B26)),"")</f>
-        <v>34</v>
+        <v>( 40.5)</v>
       </c>
       <c r="H26" s="10" t="str" cm="1">
         <f t="array" ref="H26">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D26)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B26)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B26)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B26)),"")</f>
-        <v>44</v>
+        <v>( 52.4)</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -3722,23 +3722,23 @@
         <v>Female</v>
       </c>
       <c r="D27" s="11" t="str">
-        <v>Mth03.3_Sex_ByTrt_%</v>
+        <v>Mth03.3_Sex_ByTrt_n</v>
       </c>
       <c r="E27" s="9" t="str" cm="1">
         <f t="array" ref="E27">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D27,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F27" s="10" t="str" cm="1">
         <f t="array" ref="F27">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D27)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B27)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B27)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B27)),"")</f>
-        <v>( 61.6)</v>
+        <v>53</v>
       </c>
       <c r="G27" s="10" t="str" cm="1">
         <f t="array" ref="G27">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D27)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B27)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B27)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B27)),"")</f>
-        <v>( 59.5)</v>
+        <v>50</v>
       </c>
       <c r="H27" s="10" t="str" cm="1">
         <f t="array" ref="H27">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D27)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B27)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B27)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B27)),"")</f>
-        <v>( 47.6)</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -3750,23 +3750,23 @@
         <v>Female</v>
       </c>
       <c r="D28" s="11" t="str">
-        <v>Mth03.3_Sex_ByTrt_n</v>
+        <v>Mth03.3_Sex_ByTrt_pct</v>
       </c>
       <c r="E28" s="9" t="str" cm="1">
         <f t="array" ref="E28">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D28,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F28" s="10" t="str" cm="1">
         <f t="array" ref="F28">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D28)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B28)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B28)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B28)),"")</f>
-        <v>53</v>
+        <v>( 61.6)</v>
       </c>
       <c r="G28" s="10" t="str" cm="1">
         <f t="array" ref="G28">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D28)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B28)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B28)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B28)),"")</f>
-        <v>50</v>
+        <v>( 59.5)</v>
       </c>
       <c r="H28" s="10" t="str" cm="1">
         <f t="array" ref="H28">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D28)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B28)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B28)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B28)),"")</f>
-        <v>40</v>
+        <v>( 47.6)</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -3806,23 +3806,23 @@
       </c>
       <c r="D31" s="11" t="str" cm="1">
         <f t="array" ref="D31:D34">_xlfn.TEXTAFTER(_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AnalysisResults!J$2:J$142&amp;"|"&amp;AnalysisResults!E$2:E$142,AnalysisResults!$A$2:$A$142='Demog Display'!D30,""))),"|")</f>
-        <v>Mth03.4_Ethnic_ByTrt_%</v>
+        <v>Mth03.4_Ethnic_ByTrt_n</v>
       </c>
       <c r="E31" s="9" t="str" cm="1">
         <f t="array" ref="E31">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D31,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F31" s="10" t="str" cm="1">
         <f t="array" ref="F31">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D31)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B31)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B31)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B31)),"")</f>
-        <v>(  3.5)</v>
+        <v>3</v>
       </c>
       <c r="G31" s="10" t="str" cm="1">
         <f t="array" ref="G31">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D31)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B31)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B31)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B31)),"")</f>
-        <v>(  3.6)</v>
+        <v>3</v>
       </c>
       <c r="H31" s="10" t="str" cm="1">
         <f t="array" ref="H31">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D31)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B31)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B31)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B31)),"")</f>
-        <v>(  7.1)</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -3834,23 +3834,23 @@
         <v>Hispanic or Latino</v>
       </c>
       <c r="D32" s="11" t="str">
-        <v>Mth03.4_Ethnic_ByTrt_n</v>
+        <v>Mth03.4_Ethnic_ByTrt_pct</v>
       </c>
       <c r="E32" s="9" t="str" cm="1">
         <f t="array" ref="E32">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D32,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F32" s="10" t="str" cm="1">
         <f t="array" ref="F32">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D32)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B32)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B32)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B32)),"")</f>
-        <v>3</v>
+        <v>(  3.5)</v>
       </c>
       <c r="G32" s="10" t="str" cm="1">
         <f t="array" ref="G32">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D32)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B32)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B32)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B32)),"")</f>
-        <v>3</v>
+        <v>(  3.6)</v>
       </c>
       <c r="H32" s="10" t="str" cm="1">
         <f t="array" ref="H32">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D32)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B32)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B32)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B32)),"")</f>
-        <v>6</v>
+        <v>(  7.1)</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -3862,23 +3862,23 @@
         <v>Not Hispanic or Latino</v>
       </c>
       <c r="D33" s="11" t="str">
-        <v>Mth03.4_Ethnic_ByTrt_%</v>
+        <v>Mth03.4_Ethnic_ByTrt_n</v>
       </c>
       <c r="E33" s="9" t="str" cm="1">
         <f t="array" ref="E33">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D33,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F33" s="10" t="str" cm="1">
         <f t="array" ref="F33">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D33)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B33)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B33)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B33)),"")</f>
-        <v>( 96.5)</v>
+        <v>83</v>
       </c>
       <c r="G33" s="10" t="str" cm="1">
         <f t="array" ref="G33">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D33)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B33)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B33)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B33)),"")</f>
-        <v>( 96.4)</v>
+        <v>81</v>
       </c>
       <c r="H33" s="10" t="str" cm="1">
         <f t="array" ref="H33">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D33)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B33)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B33)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B33)),"")</f>
-        <v>( 92.9)</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -3890,23 +3890,23 @@
         <v>Not Hispanic or Latino</v>
       </c>
       <c r="D34" s="11" t="str">
-        <v>Mth03.4_Ethnic_ByTrt_n</v>
+        <v>Mth03.4_Ethnic_ByTrt_pct</v>
       </c>
       <c r="E34" s="9" t="str" cm="1">
         <f t="array" ref="E34">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D34,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F34" s="10" t="str" cm="1">
         <f t="array" ref="F34">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D34)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B34)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B34)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B34)),"")</f>
-        <v>83</v>
+        <v>( 96.5)</v>
       </c>
       <c r="G34" s="10" t="str" cm="1">
         <f t="array" ref="G34">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D34)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B34)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B34)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B34)),"")</f>
-        <v>81</v>
+        <v>( 96.4)</v>
       </c>
       <c r="H34" s="10" t="str" cm="1">
         <f t="array" ref="H34">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D34)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B34)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B34)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B34)),"")</f>
-        <v>78</v>
+        <v>( 92.9)</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
@@ -3946,23 +3946,23 @@
       </c>
       <c r="D37" s="11" t="str" cm="1">
         <f t="array" ref="D37:D54">_xlfn.TEXTAFTER(_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AnalysisResults!J$2:J$142&amp;"|"&amp;AnalysisResults!E$2:E$142,AnalysisResults!$A$2:$A$142='Demog Display'!D36,""))),"|")</f>
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E37" s="9" t="str" cm="1">
         <f t="array" ref="E37">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D37,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F37" s="10" t="str" cm="1">
         <f t="array" ref="F37">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D37)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B37)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B37)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B37)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
       <c r="G37" s="10" t="str" cm="1">
         <f t="array" ref="G37">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D37)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B37)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B37)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B37)),"")</f>
-        <v>(  1.2)</v>
+        <v>1</v>
       </c>
       <c r="H37" s="10" t="str" cm="1">
         <f t="array" ref="H37">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D37)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B37)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B37)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B37)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
@@ -3974,23 +3974,23 @@
         <v>American Indian or Alaska Native</v>
       </c>
       <c r="D38" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E38" s="9" t="str" cm="1">
         <f t="array" ref="E38">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D38,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F38" s="10" t="str" cm="1">
         <f t="array" ref="F38">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D38)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B38)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B38)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B38)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
       <c r="G38" s="10" t="str" cm="1">
         <f t="array" ref="G38">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D38)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B38)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B38)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B38)),"")</f>
-        <v>1</v>
+        <v>(  1.2)</v>
       </c>
       <c r="H38" s="10" t="str" cm="1">
         <f t="array" ref="H38">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D38)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B38)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B38)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B38)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -4002,23 +4002,23 @@
         <v>Asian</v>
       </c>
       <c r="D39" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E39" s="9" t="str" cm="1">
         <f t="array" ref="E39">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D39,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F39" s="10" t="str" cm="1">
         <f t="array" ref="F39">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D39)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B39)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B39)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B39)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
       <c r="G39" s="10" t="str" cm="1">
         <f t="array" ref="G39">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D39)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B39)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B39)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B39)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
       <c r="H39" s="10" t="str" cm="1">
         <f t="array" ref="H39">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D39)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B39)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B39)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B39)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -4030,23 +4030,23 @@
         <v>Asian</v>
       </c>
       <c r="D40" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E40" s="9" t="str" cm="1">
         <f t="array" ref="E40">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D40,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F40" s="10" t="str" cm="1">
         <f t="array" ref="F40">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D40)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B40)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B40)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B40)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
       <c r="G40" s="10" t="str" cm="1">
         <f t="array" ref="G40">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D40)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B40)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B40)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B40)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
       <c r="H40" s="10" t="str" cm="1">
         <f t="array" ref="H40">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D40)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B40)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B40)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B40)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -4058,23 +4058,23 @@
         <v>Black or African American</v>
       </c>
       <c r="D41" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E41" s="9" t="str" cm="1">
         <f t="array" ref="E41">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D41,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F41" s="10" t="str" cm="1">
         <f t="array" ref="F41">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D41)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B41)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B41)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B41)),"")</f>
-        <v>(  9.3)</v>
+        <v>8</v>
       </c>
       <c r="G41" s="10" t="str" cm="1">
         <f t="array" ref="G41">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D41)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B41)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B41)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B41)),"")</f>
-        <v>( 10.7)</v>
+        <v>9</v>
       </c>
       <c r="H41" s="10" t="str" cm="1">
         <f t="array" ref="H41">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D41)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B41)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B41)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B41)),"")</f>
-        <v>(  7.1)</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -4086,23 +4086,23 @@
         <v>Black or African American</v>
       </c>
       <c r="D42" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E42" s="9" t="str" cm="1">
         <f t="array" ref="E42">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D42,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F42" s="10" t="str" cm="1">
         <f t="array" ref="F42">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D42)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B42)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B42)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B42)),"")</f>
-        <v>8</v>
+        <v>(  9.3)</v>
       </c>
       <c r="G42" s="10" t="str" cm="1">
         <f t="array" ref="G42">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D42)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B42)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B42)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B42)),"")</f>
-        <v>9</v>
+        <v>( 10.7)</v>
       </c>
       <c r="H42" s="10" t="str" cm="1">
         <f t="array" ref="H42">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D42)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B42)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B42)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B42)),"")</f>
-        <v>6</v>
+        <v>(  7.1)</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -4114,23 +4114,23 @@
         <v>Native Hawaiian or Other Pacific Islander</v>
       </c>
       <c r="D43" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E43" s="9" t="str" cm="1">
         <f t="array" ref="E43">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D43,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F43" s="10" t="str" cm="1">
         <f t="array" ref="F43">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D43)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B43)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B43)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B43)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
       <c r="G43" s="10" t="str" cm="1">
         <f t="array" ref="G43">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D43)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B43)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B43)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B43)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
       <c r="H43" s="10" t="str" cm="1">
         <f t="array" ref="H43">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D43)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B43)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B43)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B43)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
@@ -4142,23 +4142,23 @@
         <v>Native Hawaiian or Other Pacific Islander</v>
       </c>
       <c r="D44" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E44" s="9" t="str" cm="1">
         <f t="array" ref="E44">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D44,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F44" s="10" t="str" cm="1">
         <f t="array" ref="F44">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D44)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B44)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B44)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B44)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
       <c r="G44" s="10" t="str" cm="1">
         <f t="array" ref="G44">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D44)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B44)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B44)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B44)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
       <c r="H44" s="10" t="str" cm="1">
         <f t="array" ref="H44">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D44)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B44)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B44)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B44)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -4170,23 +4170,23 @@
         <v>White</v>
       </c>
       <c r="D45" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E45" s="9" t="str" cm="1">
         <f t="array" ref="E45">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D45,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F45" s="10" t="str" cm="1">
         <f t="array" ref="F45">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D45)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B45)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B45)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B45)),"")</f>
-        <v>( 90.7)</v>
+        <v>78</v>
       </c>
       <c r="G45" s="10" t="str" cm="1">
         <f t="array" ref="G45">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D45)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B45)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B45)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B45)),"")</f>
-        <v>( 88.1)</v>
+        <v>74</v>
       </c>
       <c r="H45" s="10" t="str" cm="1">
         <f t="array" ref="H45">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D45)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B45)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B45)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B45)),"")</f>
-        <v>( 92.9)</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -4198,23 +4198,23 @@
         <v>White</v>
       </c>
       <c r="D46" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E46" s="9" t="str" cm="1">
         <f t="array" ref="E46">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D46,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F46" s="10" t="str" cm="1">
         <f t="array" ref="F46">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D46)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B46)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B46)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B46)),"")</f>
-        <v>78</v>
+        <v>( 90.7)</v>
       </c>
       <c r="G46" s="10" t="str" cm="1">
         <f t="array" ref="G46">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D46)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B46)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B46)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B46)),"")</f>
-        <v>74</v>
+        <v>( 88.1)</v>
       </c>
       <c r="H46" s="10" t="str" cm="1">
         <f t="array" ref="H46">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D46)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B46)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B46)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B46)),"")</f>
-        <v>78</v>
+        <v>( 92.9)</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
@@ -4226,23 +4226,23 @@
         <v>Multiple</v>
       </c>
       <c r="D47" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E47" s="9" t="str" cm="1">
         <f t="array" ref="E47">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D47,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F47" s="10" t="str" cm="1">
         <f t="array" ref="F47">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D47)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B47)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B47)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B47)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
       <c r="G47" s="10" t="str" cm="1">
         <f t="array" ref="G47">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D47)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B47)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B47)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B47)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
       <c r="H47" s="10" t="str" cm="1">
         <f t="array" ref="H47">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D47)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B47)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B47)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B47)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -4254,23 +4254,23 @@
         <v>Multiple</v>
       </c>
       <c r="D48" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E48" s="9" t="str" cm="1">
         <f t="array" ref="E48">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D48,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F48" s="10" t="str" cm="1">
         <f t="array" ref="F48">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D48)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B48)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B48)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B48)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
       <c r="G48" s="10" t="str" cm="1">
         <f t="array" ref="G48">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D48)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B48)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B48)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B48)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
       <c r="H48" s="10" t="str" cm="1">
         <f t="array" ref="H48">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D48)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B48)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B48)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B48)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.45">
@@ -4282,23 +4282,23 @@
         <v>Not Reported</v>
       </c>
       <c r="D49" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E49" s="9" t="str" cm="1">
         <f t="array" ref="E49">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D49,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F49" s="10" t="str" cm="1">
         <f t="array" ref="F49">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D49)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B49)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B49)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B49)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
       <c r="G49" s="10" t="str" cm="1">
         <f t="array" ref="G49">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D49)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B49)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B49)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B49)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
       <c r="H49" s="10" t="str" cm="1">
         <f t="array" ref="H49">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D49)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B49)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B49)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B49)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
@@ -4310,23 +4310,23 @@
         <v>Not Reported</v>
       </c>
       <c r="D50" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E50" s="9" t="str" cm="1">
         <f t="array" ref="E50">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D50,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F50" s="10" t="str" cm="1">
         <f t="array" ref="F50">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D50)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B50)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B50)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B50)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
       <c r="G50" s="10" t="str" cm="1">
         <f t="array" ref="G50">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D50)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B50)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B50)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B50)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
       <c r="H50" s="10" t="str" cm="1">
         <f t="array" ref="H50">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D50)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B50)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B50)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B50)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.45">
@@ -4338,23 +4338,23 @@
         <v>Unknown</v>
       </c>
       <c r="D51" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E51" s="9" t="str" cm="1">
         <f t="array" ref="E51">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D51,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F51" s="10" t="str" cm="1">
         <f t="array" ref="F51">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D51)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B51)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B51)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B51)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
       <c r="G51" s="10" t="str" cm="1">
         <f t="array" ref="G51">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D51)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B51)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B51)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B51)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
       <c r="H51" s="10" t="str" cm="1">
         <f t="array" ref="H51">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D51)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B51)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B51)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B51)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.45">
@@ -4366,23 +4366,23 @@
         <v>Unknown</v>
       </c>
       <c r="D52" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E52" s="9" t="str" cm="1">
         <f t="array" ref="E52">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D52,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F52" s="10" t="str" cm="1">
         <f t="array" ref="F52">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D52)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B52)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B52)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B52)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
       <c r="G52" s="10" t="str" cm="1">
         <f t="array" ref="G52">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D52)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B52)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B52)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B52)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
       <c r="H52" s="10" t="str" cm="1">
         <f t="array" ref="H52">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D52)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B52)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B52)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B52)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.45">
@@ -4394,23 +4394,23 @@
         <v>Other</v>
       </c>
       <c r="D53" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_%</v>
+        <v>Mth03.5_Race_ByTrt_n</v>
       </c>
       <c r="E53" s="9" t="str" cm="1">
         <f t="array" ref="E53">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D53,"")</f>
-        <v>%</v>
+        <v>n</v>
       </c>
       <c r="F53" s="10" t="str" cm="1">
         <f t="array" ref="F53">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D53)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B53)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B53)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B53)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
       <c r="G53" s="10" t="str" cm="1">
         <f t="array" ref="G53">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D53)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B53)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B53)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B53)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
       <c r="H53" s="10" t="str" cm="1">
         <f t="array" ref="H53">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D53)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B53)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B53)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B53)),"")</f>
-        <v>(  0.0)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
@@ -4422,23 +4422,23 @@
         <v>Other</v>
       </c>
       <c r="D54" s="11" t="str">
-        <v>Mth03.5_Race_ByTrt_n</v>
+        <v>Mth03.5_Race_ByTrt_pct</v>
       </c>
       <c r="E54" s="9" t="str" cm="1">
         <f t="array" ref="E54">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32='Demog Display'!D54,"")</f>
-        <v>n</v>
+        <v>%</v>
       </c>
       <c r="F54" s="10" t="str" cm="1">
         <f t="array" ref="F54">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D54)*(AnalysisResults!$H$2:$H$142='Demog Display'!F$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B54)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B54)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B54)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
       <c r="G54" s="10" t="str" cm="1">
         <f t="array" ref="G54">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D54)*(AnalysisResults!$H$2:$H$142='Demog Display'!G$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B54)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B54)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B54)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
       <c r="H54" s="10" t="str" cm="1">
         <f t="array" ref="H54">_xlfn._xlws.FILTER(AnalysisResults!$O$2:$O$142,(AnalysisResults!$E$2:$E$142='Demog Display'!$D54)*(AnalysisResults!$H$2:$H$142='Demog Display'!H$4)*((AnalysisResults!$H$2:$H$142='Demog Display'!$B54)+(AnalysisResults!$J$2:$J$142='Demog Display'!$B54)+(AnalysisResults!$L$2:$L$142='Demog Display'!$B54)),"")</f>
-        <v>0</v>
+        <v>(  0.0)</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.45">
@@ -4658,58 +4658,58 @@
         <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4747,91 +4747,91 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -4842,152 +4842,152 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4998,152 +4998,152 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F11" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F12" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F13" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E15" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F16" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -5154,28 +5154,28 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F17" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
         <v>94</v>
@@ -6040,7 +6040,7 @@
         <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
         <v>53</v>
@@ -6079,7 +6079,7 @@
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
@@ -6118,7 +6118,7 @@
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
         <v>95</v>
@@ -6157,7 +6157,7 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G13" t="s">
         <v>55</v>
@@ -6196,7 +6196,7 @@
         <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
         <v>56</v>
@@ -6235,7 +6235,7 @@
         <v>11</v>
       </c>
       <c r="L14" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
         <v>57</v>
@@ -6274,7 +6274,7 @@
         <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
         <v>58</v>
@@ -6313,7 +6313,7 @@
         <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
         <v>59</v>
@@ -6352,7 +6352,7 @@
         <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
         <v>96</v>
@@ -6391,7 +6391,7 @@
         <v>11</v>
       </c>
       <c r="L18" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
         <v>97</v>
@@ -6430,7 +6430,7 @@
         <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
@@ -6517,7 +6517,7 @@
         <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>73</v>
@@ -6836,7 +6836,7 @@
         <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>359</v>
       </c>
       <c r="F12" t="s">
         <v>88</v>
@@ -6871,7 +6871,7 @@
         <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
         <v>87</v>
@@ -6900,7 +6900,7 @@
         <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>
@@ -6915,7 +6915,7 @@
         <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s">
         <v>149</v>
@@ -6935,7 +6935,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -6964,7 +6964,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>361</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -6979,7 +6979,7 @@
         <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
         <v>149</v>
@@ -6999,7 +6999,7 @@
         <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>
@@ -7028,7 +7028,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F18" t="s">
         <v>88</v>
@@ -7043,7 +7043,7 @@
         <v>143</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
         <v>149</v>
@@ -7063,7 +7063,7 @@
         <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F19" t="s">
         <v>83</v>
@@ -7092,7 +7092,7 @@
         <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
@@ -7121,7 +7121,7 @@
         <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F21" t="s">
         <v>84</v>
@@ -7150,7 +7150,7 @@
         <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F22" t="s">
         <v>78</v>
@@ -7179,7 +7179,7 @@
         <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -7208,7 +7208,7 @@
         <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
         <v>91</v>
@@ -7237,7 +7237,7 @@
         <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F25" t="s">
         <v>85</v>
@@ -7266,7 +7266,7 @@
         <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F26" t="s">
         <v>86</v>
@@ -7295,7 +7295,7 @@
         <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -7324,7 +7324,7 @@
         <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
       <c r="F28" t="s">
         <v>88</v>
@@ -7339,7 +7339,7 @@
         <v>143</v>
       </c>
       <c r="J28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K28" t="s">
         <v>149</v>
@@ -7359,7 +7359,7 @@
         <v>129</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F29" t="s">
         <v>87</v>
@@ -7388,7 +7388,7 @@
         <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>364</v>
       </c>
       <c r="F30" t="s">
         <v>88</v>
@@ -7403,7 +7403,7 @@
         <v>143</v>
       </c>
       <c r="J30" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K30" t="s">
         <v>149</v>
@@ -7423,7 +7423,7 @@
         <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
         <v>87</v>
@@ -7452,7 +7452,7 @@
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>365</v>
       </c>
       <c r="F32" t="s">
         <v>88</v>
@@ -7467,7 +7467,7 @@
         <v>143</v>
       </c>
       <c r="J32" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K32" t="s">
         <v>149</v>
@@ -7512,13 +7512,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>71</v>
@@ -7530,22 +7530,22 @@
         <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>147</v>
@@ -7599,7 +7599,7 @@
         <v>86</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -7647,7 +7647,7 @@
         <v>84</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -7695,7 +7695,7 @@
         <v>84</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -7743,7 +7743,7 @@
         <v>86</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -7791,7 +7791,7 @@
         <v>84</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
@@ -7839,7 +7839,7 @@
         <v>84</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -7887,7 +7887,7 @@
         <v>75.209302300000004</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -7935,7 +7935,7 @@
         <v>75.666666699999993</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
@@ -7983,7 +7983,7 @@
         <v>74.380952399999998</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -8031,7 +8031,7 @@
         <v>8.5901671000000004</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -8079,7 +8079,7 @@
         <v>8.2860505999999994</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -8127,7 +8127,7 @@
         <v>7.8860938000000003</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -8175,7 +8175,7 @@
         <v>76</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
@@ -8223,7 +8223,7 @@
         <v>77.5</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -8271,7 +8271,7 @@
         <v>76</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
@@ -8319,7 +8319,7 @@
         <v>69</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
@@ -8367,7 +8367,7 @@
         <v>71</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
@@ -8415,7 +8415,7 @@
         <v>70</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
@@ -8463,7 +8463,7 @@
         <v>82</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
@@ -8511,7 +8511,7 @@
         <v>82</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
@@ -8559,7 +8559,7 @@
         <v>80</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
@@ -8607,7 +8607,7 @@
         <v>52</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
@@ -8655,7 +8655,7 @@
         <v>51</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
@@ -8703,7 +8703,7 @@
         <v>56</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -8751,7 +8751,7 @@
         <v>89</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
@@ -8799,7 +8799,7 @@
         <v>88</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
@@ -8847,7 +8847,7 @@
         <v>88</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
@@ -8898,7 +8898,7 @@
         <v>14</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
@@ -8949,7 +8949,7 @@
         <v>72</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
@@ -9000,7 +9000,7 @@
         <v>8</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
@@ -9051,7 +9051,7 @@
         <v>76</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.45">
@@ -9102,7 +9102,7 @@
         <v>11</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
@@ -9153,7 +9153,7 @@
         <v>73</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
@@ -9172,7 +9172,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>359</v>
       </c>
       <c r="F35" s="4" t="str" cm="1">
         <f t="array" ref="F35">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E35,"")</f>
@@ -9204,7 +9204,7 @@
         <v>16.279069767441861</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
@@ -9223,7 +9223,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>359</v>
       </c>
       <c r="F36" s="4" t="str" cm="1">
         <f t="array" ref="F36">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E36,"")</f>
@@ -9255,7 +9255,7 @@
         <v>83.720930232558146</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
@@ -9274,7 +9274,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>359</v>
       </c>
       <c r="F37" s="4" t="str" cm="1">
         <f t="array" ref="F37">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E37,"")</f>
@@ -9306,7 +9306,7 @@
         <v>9.5238095238095237</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
@@ -9325,7 +9325,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>359</v>
       </c>
       <c r="F38" s="4" t="str" cm="1">
         <f t="array" ref="F38">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E38,"")</f>
@@ -9357,7 +9357,7 @@
         <v>90.476190476190482</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
@@ -9376,7 +9376,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>359</v>
       </c>
       <c r="F39" s="4" t="str" cm="1">
         <f t="array" ref="F39">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E39,"")</f>
@@ -9408,7 +9408,7 @@
         <v>13.095238095238095</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
@@ -9427,7 +9427,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>359</v>
       </c>
       <c r="F40" s="4" t="str" cm="1">
         <f t="array" ref="F40">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E40,"")</f>
@@ -9459,7 +9459,7 @@
         <v>86.904761904761898</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
@@ -9478,7 +9478,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F41" s="4" t="str" cm="1">
         <f t="array" ref="F41">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E41,"")</f>
@@ -9510,7 +9510,7 @@
         <v>33</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
@@ -9529,7 +9529,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F42" s="4" t="str" cm="1">
         <f t="array" ref="F42">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E42,"")</f>
@@ -9547,7 +9547,7 @@
         <v>Placebo</v>
       </c>
       <c r="J42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K42" s="4" t="str" cm="1">
         <f t="array" ref="K42">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J42)*LEN(J42)&gt;0,"")</f>
@@ -9561,7 +9561,7 @@
         <v>53</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
@@ -9580,7 +9580,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F43" s="4" t="str" cm="1">
         <f t="array" ref="F43">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E43,"")</f>
@@ -9612,7 +9612,7 @@
         <v>34</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
@@ -9631,7 +9631,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F44" s="4" t="str" cm="1">
         <f t="array" ref="F44">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E44,"")</f>
@@ -9649,7 +9649,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K44" s="4" t="str" cm="1">
         <f t="array" ref="K44">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J44)*LEN(J44)&gt;0,"")</f>
@@ -9663,7 +9663,7 @@
         <v>50</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
@@ -9682,7 +9682,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F45" s="4" t="str" cm="1">
         <f t="array" ref="F45">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E45,"")</f>
@@ -9714,7 +9714,7 @@
         <v>44</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.45">
@@ -9733,7 +9733,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F46" s="4" t="str" cm="1">
         <f t="array" ref="F46">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E46,"")</f>
@@ -9751,7 +9751,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K46" s="4" t="str" cm="1">
         <f t="array" ref="K46">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J46)*LEN(J46)&gt;0,"")</f>
@@ -9765,7 +9765,7 @@
         <v>40</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
@@ -9784,7 +9784,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="F47" s="4" t="str" cm="1">
         <f t="array" ref="F47">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E47,"")</f>
@@ -9816,7 +9816,7 @@
         <v>38.372093023255815</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
@@ -9835,7 +9835,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="F48" s="4" t="str" cm="1">
         <f t="array" ref="F48">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E48,"")</f>
@@ -9853,7 +9853,7 @@
         <v>Placebo</v>
       </c>
       <c r="J48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K48" s="4" t="str" cm="1">
         <f t="array" ref="K48">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J48)*LEN(J48)&gt;0,"")</f>
@@ -9867,7 +9867,7 @@
         <v>61.627906976744185</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
@@ -9886,7 +9886,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="F49" s="4" t="str" cm="1">
         <f t="array" ref="F49">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E49,"")</f>
@@ -9918,7 +9918,7 @@
         <v>40.476190476190474</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
@@ -9937,7 +9937,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="F50" s="4" t="str" cm="1">
         <f t="array" ref="F50">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E50,"")</f>
@@ -9955,7 +9955,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K50" s="4" t="str" cm="1">
         <f t="array" ref="K50">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J50)*LEN(J50)&gt;0,"")</f>
@@ -9969,7 +9969,7 @@
         <v>59.523809523809526</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
@@ -9988,7 +9988,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="F51" s="4" t="str" cm="1">
         <f t="array" ref="F51">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E51,"")</f>
@@ -10020,7 +10020,7 @@
         <v>52.38095238095238</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
@@ -10039,7 +10039,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E52" t="s">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="F52" s="4" t="str" cm="1">
         <f t="array" ref="F52">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E52,"")</f>
@@ -10057,7 +10057,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K52" s="4" t="str" cm="1">
         <f t="array" ref="K52">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J52)*LEN(J52)&gt;0,"")</f>
@@ -10071,7 +10071,7 @@
         <v>47.61904761904762</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.45">
@@ -10090,7 +10090,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F53" s="4" t="str" cm="1">
         <f t="array" ref="F53">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E53,"")</f>
@@ -10108,7 +10108,7 @@
         <v>Placebo</v>
       </c>
       <c r="J53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K53" s="4" t="str" cm="1">
         <f t="array" ref="K53">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J53)*LEN(J53)&gt;0,"")</f>
@@ -10122,7 +10122,7 @@
         <v>3</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.45">
@@ -10141,7 +10141,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F54" s="4" t="str" cm="1">
         <f t="array" ref="F54">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E54,"")</f>
@@ -10159,7 +10159,7 @@
         <v>Placebo</v>
       </c>
       <c r="J54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K54" s="4" t="str" cm="1">
         <f t="array" ref="K54">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J54)*LEN(J54)&gt;0,"")</f>
@@ -10173,7 +10173,7 @@
         <v>83</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.45">
@@ -10192,7 +10192,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F55" s="4" t="str" cm="1">
         <f t="array" ref="F55">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E55,"")</f>
@@ -10210,7 +10210,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K55" s="4" t="str" cm="1">
         <f t="array" ref="K55">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J55)*LEN(J55)&gt;0,"")</f>
@@ -10224,7 +10224,7 @@
         <v>3</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.45">
@@ -10243,7 +10243,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F56" s="4" t="str" cm="1">
         <f t="array" ref="F56">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E56,"")</f>
@@ -10261,7 +10261,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K56" s="4" t="str" cm="1">
         <f t="array" ref="K56">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J56)*LEN(J56)&gt;0,"")</f>
@@ -10275,7 +10275,7 @@
         <v>81</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.45">
@@ -10294,7 +10294,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F57" s="4" t="str" cm="1">
         <f t="array" ref="F57">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E57,"")</f>
@@ -10312,7 +10312,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K57" s="4" t="str" cm="1">
         <f t="array" ref="K57">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J57)*LEN(J57)&gt;0,"")</f>
@@ -10326,7 +10326,7 @@
         <v>6</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.45">
@@ -10345,7 +10345,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F58" s="4" t="str" cm="1">
         <f t="array" ref="F58">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E58,"")</f>
@@ -10363,7 +10363,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J58" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K58" s="4" t="str" cm="1">
         <f t="array" ref="K58">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J58)*LEN(J58)&gt;0,"")</f>
@@ -10377,7 +10377,7 @@
         <v>78</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.45">
@@ -10396,7 +10396,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>361</v>
       </c>
       <c r="F59" s="4" t="str" cm="1">
         <f t="array" ref="F59">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E59,"")</f>
@@ -10414,7 +10414,7 @@
         <v>Placebo</v>
       </c>
       <c r="J59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K59" s="4" t="str" cm="1">
         <f t="array" ref="K59">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J59)*LEN(J59)&gt;0,"")</f>
@@ -10428,7 +10428,7 @@
         <v>3.4883720930232558</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
@@ -10447,7 +10447,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E60" t="s">
-        <v>168</v>
+        <v>361</v>
       </c>
       <c r="F60" s="4" t="str" cm="1">
         <f t="array" ref="F60">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E60,"")</f>
@@ -10465,7 +10465,7 @@
         <v>Placebo</v>
       </c>
       <c r="J60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K60" s="4" t="str" cm="1">
         <f t="array" ref="K60">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J60)*LEN(J60)&gt;0,"")</f>
@@ -10479,7 +10479,7 @@
         <v>96.511627906976742</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.45">
@@ -10498,7 +10498,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E61" t="s">
-        <v>168</v>
+        <v>361</v>
       </c>
       <c r="F61" s="4" t="str" cm="1">
         <f t="array" ref="F61">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E61,"")</f>
@@ -10516,7 +10516,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K61" s="4" t="str" cm="1">
         <f t="array" ref="K61">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J61)*LEN(J61)&gt;0,"")</f>
@@ -10530,7 +10530,7 @@
         <v>3.5714285714285716</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.45">
@@ -10549,7 +10549,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E62" t="s">
-        <v>168</v>
+        <v>361</v>
       </c>
       <c r="F62" s="4" t="str" cm="1">
         <f t="array" ref="F62">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E62,"")</f>
@@ -10567,7 +10567,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K62" s="4" t="str" cm="1">
         <f t="array" ref="K62">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J62)*LEN(J62)&gt;0,"")</f>
@@ -10581,7 +10581,7 @@
         <v>96.428571428571431</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.45">
@@ -10600,7 +10600,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E63" t="s">
-        <v>168</v>
+        <v>361</v>
       </c>
       <c r="F63" s="4" t="str" cm="1">
         <f t="array" ref="F63">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E63,"")</f>
@@ -10618,7 +10618,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K63" s="4" t="str" cm="1">
         <f t="array" ref="K63">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J63)*LEN(J63)&gt;0,"")</f>
@@ -10632,7 +10632,7 @@
         <v>7.1428571428571432</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.45">
@@ -10651,7 +10651,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E64" t="s">
-        <v>168</v>
+        <v>361</v>
       </c>
       <c r="F64" s="4" t="str" cm="1">
         <f t="array" ref="F64">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E64,"")</f>
@@ -10669,7 +10669,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K64" s="4" t="str" cm="1">
         <f t="array" ref="K64">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J64)*LEN(J64)&gt;0,"")</f>
@@ -10683,7 +10683,7 @@
         <v>92.857142857142861</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.45">
@@ -10702,7 +10702,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F65" s="4" t="str" cm="1">
         <f t="array" ref="F65">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E65,"")</f>
@@ -10720,7 +10720,7 @@
         <v>Placebo</v>
       </c>
       <c r="J65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K65" s="4" t="str" cm="1">
         <f t="array" ref="K65">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J65)*LEN(J65)&gt;0,"")</f>
@@ -10734,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.45">
@@ -10753,7 +10753,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F66" s="4" t="str" cm="1">
         <f t="array" ref="F66">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E66,"")</f>
@@ -10771,7 +10771,7 @@
         <v>Placebo</v>
       </c>
       <c r="J66" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K66" s="4" t="str" cm="1">
         <f t="array" ref="K66">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J66)*LEN(J66)&gt;0,"")</f>
@@ -10785,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.45">
@@ -10804,7 +10804,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F67" s="4" t="str" cm="1">
         <f t="array" ref="F67">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E67,"")</f>
@@ -10822,7 +10822,7 @@
         <v>Placebo</v>
       </c>
       <c r="J67" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K67" s="4" t="str" cm="1">
         <f t="array" ref="K67">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J67)*LEN(J67)&gt;0,"")</f>
@@ -10836,7 +10836,7 @@
         <v>8</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.45">
@@ -10855,7 +10855,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E68" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F68" s="4" t="str" cm="1">
         <f t="array" ref="F68">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E68,"")</f>
@@ -10873,7 +10873,7 @@
         <v>Placebo</v>
       </c>
       <c r="J68" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K68" s="4" t="str" cm="1">
         <f t="array" ref="K68">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J68)*LEN(J68)&gt;0,"")</f>
@@ -10887,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.45">
@@ -10906,7 +10906,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F69" s="4" t="str" cm="1">
         <f t="array" ref="F69">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E69,"")</f>
@@ -10924,7 +10924,7 @@
         <v>Placebo</v>
       </c>
       <c r="J69" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K69" s="4" t="str" cm="1">
         <f t="array" ref="K69">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J69)*LEN(J69)&gt;0,"")</f>
@@ -10938,7 +10938,7 @@
         <v>78</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.45">
@@ -10957,7 +10957,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F70" s="4" t="str" cm="1">
         <f t="array" ref="F70">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E70,"")</f>
@@ -10975,7 +10975,7 @@
         <v>Placebo</v>
       </c>
       <c r="J70" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K70" s="4" t="str" cm="1">
         <f t="array" ref="K70">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J70)*LEN(J70)&gt;0,"")</f>
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.45">
@@ -11008,7 +11008,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F71" s="4" t="str" cm="1">
         <f t="array" ref="F71">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E71,"")</f>
@@ -11026,7 +11026,7 @@
         <v>Placebo</v>
       </c>
       <c r="J71" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K71" s="4" t="str" cm="1">
         <f t="array" ref="K71">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J71)*LEN(J71)&gt;0,"")</f>
@@ -11040,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.45">
@@ -11059,7 +11059,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F72" s="4" t="str" cm="1">
         <f t="array" ref="F72">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E72,"")</f>
@@ -11077,7 +11077,7 @@
         <v>Placebo</v>
       </c>
       <c r="J72" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K72" s="4" t="str" cm="1">
         <f t="array" ref="K72">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J72)*LEN(J72)&gt;0,"")</f>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.45">
@@ -11110,7 +11110,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E73" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F73" s="4" t="str" cm="1">
         <f t="array" ref="F73">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E73,"")</f>
@@ -11128,7 +11128,7 @@
         <v>Placebo</v>
       </c>
       <c r="J73" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K73" s="4" t="str" cm="1">
         <f t="array" ref="K73">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J73)*LEN(J73)&gt;0,"")</f>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.45">
@@ -11161,7 +11161,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E74" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F74" s="4" t="str" cm="1">
         <f t="array" ref="F74">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E74,"")</f>
@@ -11179,7 +11179,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J74" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K74" s="4" t="str" cm="1">
         <f t="array" ref="K74">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J74)*LEN(J74)&gt;0,"")</f>
@@ -11193,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.45">
@@ -11212,7 +11212,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F75" s="4" t="str" cm="1">
         <f t="array" ref="F75">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E75,"")</f>
@@ -11230,7 +11230,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J75" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K75" s="4" t="str" cm="1">
         <f t="array" ref="K75">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J75)*LEN(J75)&gt;0,"")</f>
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.45">
@@ -11263,7 +11263,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F76" s="4" t="str" cm="1">
         <f t="array" ref="F76">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E76,"")</f>
@@ -11281,7 +11281,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J76" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K76" s="4" t="str" cm="1">
         <f t="array" ref="K76">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J76)*LEN(J76)&gt;0,"")</f>
@@ -11295,7 +11295,7 @@
         <v>9</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.45">
@@ -11314,7 +11314,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E77" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F77" s="4" t="str" cm="1">
         <f t="array" ref="F77">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E77,"")</f>
@@ -11332,7 +11332,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K77" s="4" t="str" cm="1">
         <f t="array" ref="K77">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J77)*LEN(J77)&gt;0,"")</f>
@@ -11346,7 +11346,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.45">
@@ -11365,7 +11365,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F78" s="4" t="str" cm="1">
         <f t="array" ref="F78">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E78,"")</f>
@@ -11383,7 +11383,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J78" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K78" s="4" t="str" cm="1">
         <f t="array" ref="K78">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J78)*LEN(J78)&gt;0,"")</f>
@@ -11397,7 +11397,7 @@
         <v>74</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.45">
@@ -11416,7 +11416,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E79" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F79" s="4" t="str" cm="1">
         <f t="array" ref="F79">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E79,"")</f>
@@ -11434,7 +11434,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J79" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K79" s="4" t="str" cm="1">
         <f t="array" ref="K79">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J79)*LEN(J79)&gt;0,"")</f>
@@ -11448,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.45">
@@ -11467,7 +11467,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F80" s="4" t="str" cm="1">
         <f t="array" ref="F80">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E80,"")</f>
@@ -11485,7 +11485,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J80" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K80" s="4" t="str" cm="1">
         <f t="array" ref="K80">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J80)*LEN(J80)&gt;0,"")</f>
@@ -11499,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.45">
@@ -11518,7 +11518,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F81" s="4" t="str" cm="1">
         <f t="array" ref="F81">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E81,"")</f>
@@ -11536,7 +11536,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J81" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K81" s="4" t="str" cm="1">
         <f t="array" ref="K81">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J81)*LEN(J81)&gt;0,"")</f>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.45">
@@ -11569,7 +11569,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F82" s="4" t="str" cm="1">
         <f t="array" ref="F82">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E82,"")</f>
@@ -11587,7 +11587,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J82" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K82" s="4" t="str" cm="1">
         <f t="array" ref="K82">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J82)*LEN(J82)&gt;0,"")</f>
@@ -11601,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.45">
@@ -11620,7 +11620,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E83" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F83" s="4" t="str" cm="1">
         <f t="array" ref="F83">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E83,"")</f>
@@ -11638,7 +11638,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J83" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K83" s="4" t="str" cm="1">
         <f t="array" ref="K83">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J83)*LEN(J83)&gt;0,"")</f>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.45">
@@ -11671,7 +11671,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F84" s="4" t="str" cm="1">
         <f t="array" ref="F84">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E84,"")</f>
@@ -11689,7 +11689,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J84" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K84" s="4" t="str" cm="1">
         <f t="array" ref="K84">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J84)*LEN(J84)&gt;0,"")</f>
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.45">
@@ -11722,7 +11722,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" s="4" t="str" cm="1">
         <f t="array" ref="F85">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E85,"")</f>
@@ -11740,7 +11740,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J85" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K85" s="4" t="str" cm="1">
         <f t="array" ref="K85">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J85)*LEN(J85)&gt;0,"")</f>
@@ -11754,7 +11754,7 @@
         <v>6</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.45">
@@ -11773,7 +11773,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" s="4" t="str" cm="1">
         <f t="array" ref="F86">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E86,"")</f>
@@ -11791,7 +11791,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J86" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K86" s="4" t="str" cm="1">
         <f t="array" ref="K86">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J86)*LEN(J86)&gt;0,"")</f>
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.45">
@@ -11824,7 +11824,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F87" s="4" t="str" cm="1">
         <f t="array" ref="F87">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E87,"")</f>
@@ -11842,7 +11842,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J87" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K87" s="4" t="str" cm="1">
         <f t="array" ref="K87">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J87)*LEN(J87)&gt;0,"")</f>
@@ -11856,7 +11856,7 @@
         <v>78</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.45">
@@ -11875,7 +11875,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F88" s="4" t="str" cm="1">
         <f t="array" ref="F88">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E88,"")</f>
@@ -11893,7 +11893,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K88" s="4" t="str" cm="1">
         <f t="array" ref="K88">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J88)*LEN(J88)&gt;0,"")</f>
@@ -11907,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.45">
@@ -11926,7 +11926,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F89" s="4" t="str" cm="1">
         <f t="array" ref="F89">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E89,"")</f>
@@ -11944,7 +11944,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K89" s="4" t="str" cm="1">
         <f t="array" ref="K89">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J89)*LEN(J89)&gt;0,"")</f>
@@ -11958,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.45">
@@ -11977,7 +11977,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F90" s="4" t="str" cm="1">
         <f t="array" ref="F90">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E90,"")</f>
@@ -11995,7 +11995,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K90" s="4" t="str" cm="1">
         <f t="array" ref="K90">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J90)*LEN(J90)&gt;0,"")</f>
@@ -12009,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.45">
@@ -12028,7 +12028,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F91" s="4" t="str" cm="1">
         <f t="array" ref="F91">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E91,"")</f>
@@ -12046,7 +12046,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K91" s="4" t="str" cm="1">
         <f t="array" ref="K91">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J91)*LEN(J91)&gt;0,"")</f>
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.45">
@@ -12079,7 +12079,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F92" s="4" t="str" cm="1">
         <f t="array" ref="F92">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E92,"")</f>
@@ -12097,7 +12097,7 @@
         <v>Placebo</v>
       </c>
       <c r="J92" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K92" s="4" t="str" cm="1">
         <f t="array" ref="K92">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J92)*LEN(J92)&gt;0,"")</f>
@@ -12111,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.45">
@@ -12130,7 +12130,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F93" s="4" t="str" cm="1">
         <f t="array" ref="F93">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E93,"")</f>
@@ -12148,7 +12148,7 @@
         <v>Placebo</v>
       </c>
       <c r="J93" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K93" s="4" t="str" cm="1">
         <f t="array" ref="K93">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J93)*LEN(J93)&gt;0,"")</f>
@@ -12162,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.45">
@@ -12181,7 +12181,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F94" s="4" t="str" cm="1">
         <f t="array" ref="F94">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E94,"")</f>
@@ -12199,7 +12199,7 @@
         <v>Placebo</v>
       </c>
       <c r="J94" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K94" s="4" t="str" cm="1">
         <f t="array" ref="K94">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J94)*LEN(J94)&gt;0,"")</f>
@@ -12213,7 +12213,7 @@
         <v>9.3023255813953494</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.45">
@@ -12232,7 +12232,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F95" s="4" t="str" cm="1">
         <f t="array" ref="F95">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E95,"")</f>
@@ -12250,7 +12250,7 @@
         <v>Placebo</v>
       </c>
       <c r="J95" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K95" s="4" t="str" cm="1">
         <f t="array" ref="K95">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J95)*LEN(J95)&gt;0,"")</f>
@@ -12264,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.45">
@@ -12283,7 +12283,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F96" s="4" t="str" cm="1">
         <f t="array" ref="F96">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E96,"")</f>
@@ -12301,7 +12301,7 @@
         <v>Placebo</v>
       </c>
       <c r="J96" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K96" s="4" t="str" cm="1">
         <f t="array" ref="K96">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J96)*LEN(J96)&gt;0,"")</f>
@@ -12315,7 +12315,7 @@
         <v>90.697674418604649</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.45">
@@ -12334,7 +12334,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F97" s="4" t="str" cm="1">
         <f t="array" ref="F97">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E97,"")</f>
@@ -12352,7 +12352,7 @@
         <v>Placebo</v>
       </c>
       <c r="J97" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K97" s="4" t="str" cm="1">
         <f t="array" ref="K97">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J97)*LEN(J97)&gt;0,"")</f>
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.45">
@@ -12385,7 +12385,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F98" s="4" t="str" cm="1">
         <f t="array" ref="F98">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E98,"")</f>
@@ -12403,7 +12403,7 @@
         <v>Placebo</v>
       </c>
       <c r="J98" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K98" s="4" t="str" cm="1">
         <f t="array" ref="K98">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J98)*LEN(J98)&gt;0,"")</f>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.45">
@@ -12436,7 +12436,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E99" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F99" s="4" t="str" cm="1">
         <f t="array" ref="F99">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E99,"")</f>
@@ -12454,7 +12454,7 @@
         <v>Placebo</v>
       </c>
       <c r="J99" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K99" s="4" t="str" cm="1">
         <f t="array" ref="K99">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J99)*LEN(J99)&gt;0,"")</f>
@@ -12468,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.45">
@@ -12487,7 +12487,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E100" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F100" s="4" t="str" cm="1">
         <f t="array" ref="F100">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E100,"")</f>
@@ -12505,7 +12505,7 @@
         <v>Placebo</v>
       </c>
       <c r="J100" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K100" s="4" t="str" cm="1">
         <f t="array" ref="K100">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J100)*LEN(J100)&gt;0,"")</f>
@@ -12519,7 +12519,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.45">
@@ -12538,7 +12538,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E101" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F101" s="4" t="str" cm="1">
         <f t="array" ref="F101">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E101,"")</f>
@@ -12556,7 +12556,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J101" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K101" s="4" t="str" cm="1">
         <f t="array" ref="K101">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J101)*LEN(J101)&gt;0,"")</f>
@@ -12570,7 +12570,7 @@
         <v>1.1904761904761905</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.45">
@@ -12589,7 +12589,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E102" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F102" s="4" t="str" cm="1">
         <f t="array" ref="F102">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E102,"")</f>
@@ -12607,7 +12607,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J102" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K102" s="4" t="str" cm="1">
         <f t="array" ref="K102">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J102)*LEN(J102)&gt;0,"")</f>
@@ -12621,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.45">
@@ -12640,7 +12640,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E103" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F103" s="4" t="str" cm="1">
         <f t="array" ref="F103">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E103,"")</f>
@@ -12658,7 +12658,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J103" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K103" s="4" t="str" cm="1">
         <f t="array" ref="K103">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J103)*LEN(J103)&gt;0,"")</f>
@@ -12672,7 +12672,7 @@
         <v>10.714285714285714</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.45">
@@ -12691,7 +12691,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E104" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F104" s="4" t="str" cm="1">
         <f t="array" ref="F104">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E104,"")</f>
@@ -12709,7 +12709,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J104" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K104" s="4" t="str" cm="1">
         <f t="array" ref="K104">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J104)*LEN(J104)&gt;0,"")</f>
@@ -12723,7 +12723,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.45">
@@ -12742,7 +12742,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E105" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F105" s="4" t="str" cm="1">
         <f t="array" ref="F105">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E105,"")</f>
@@ -12760,7 +12760,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J105" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K105" s="4" t="str" cm="1">
         <f t="array" ref="K105">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J105)*LEN(J105)&gt;0,"")</f>
@@ -12774,7 +12774,7 @@
         <v>88.095238095238102</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.45">
@@ -12793,7 +12793,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E106" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F106" s="4" t="str" cm="1">
         <f t="array" ref="F106">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E106,"")</f>
@@ -12811,7 +12811,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J106" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K106" s="4" t="str" cm="1">
         <f t="array" ref="K106">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J106)*LEN(J106)&gt;0,"")</f>
@@ -12825,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.45">
@@ -12844,7 +12844,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E107" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F107" s="4" t="str" cm="1">
         <f t="array" ref="F107">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E107,"")</f>
@@ -12862,7 +12862,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J107" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K107" s="4" t="str" cm="1">
         <f t="array" ref="K107">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J107)*LEN(J107)&gt;0,"")</f>
@@ -12876,7 +12876,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.45">
@@ -12895,7 +12895,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E108" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F108" s="4" t="str" cm="1">
         <f t="array" ref="F108">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E108,"")</f>
@@ -12913,7 +12913,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J108" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K108" s="4" t="str" cm="1">
         <f t="array" ref="K108">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J108)*LEN(J108)&gt;0,"")</f>
@@ -12927,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.45">
@@ -12946,7 +12946,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E109" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F109" s="4" t="str" cm="1">
         <f t="array" ref="F109">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E109,"")</f>
@@ -12964,7 +12964,7 @@
         <v>Xanomeline Low Dose</v>
       </c>
       <c r="J109" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K109" s="4" t="str" cm="1">
         <f t="array" ref="K109">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J109)*LEN(J109)&gt;0,"")</f>
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.45">
@@ -12997,7 +12997,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E110" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F110" s="4" t="str" cm="1">
         <f t="array" ref="F110">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E110,"")</f>
@@ -13015,7 +13015,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J110" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K110" s="4" t="str" cm="1">
         <f t="array" ref="K110">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J110)*LEN(J110)&gt;0,"")</f>
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.45">
@@ -13048,7 +13048,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E111" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F111" s="4" t="str" cm="1">
         <f t="array" ref="F111">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E111,"")</f>
@@ -13066,7 +13066,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J111" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K111" s="4" t="str" cm="1">
         <f t="array" ref="K111">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J111)*LEN(J111)&gt;0,"")</f>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.45">
@@ -13099,7 +13099,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E112" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F112" s="4" t="str" cm="1">
         <f t="array" ref="F112">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E112,"")</f>
@@ -13117,7 +13117,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J112" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K112" s="4" t="str" cm="1">
         <f t="array" ref="K112">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J112)*LEN(J112)&gt;0,"")</f>
@@ -13131,7 +13131,7 @@
         <v>7.1428571428571432</v>
       </c>
       <c r="O112" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.45">
@@ -13150,7 +13150,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E113" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F113" s="4" t="str" cm="1">
         <f t="array" ref="F113">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E113,"")</f>
@@ -13168,7 +13168,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J113" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K113" s="4" t="str" cm="1">
         <f t="array" ref="K113">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J113)*LEN(J113)&gt;0,"")</f>
@@ -13182,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.45">
@@ -13201,7 +13201,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E114" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F114" s="4" t="str" cm="1">
         <f t="array" ref="F114">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E114,"")</f>
@@ -13219,7 +13219,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J114" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K114" s="4" t="str" cm="1">
         <f t="array" ref="K114">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J114)*LEN(J114)&gt;0,"")</f>
@@ -13233,7 +13233,7 @@
         <v>92.857142857142861</v>
       </c>
       <c r="O114" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.45">
@@ -13252,7 +13252,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E115" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F115" s="4" t="str" cm="1">
         <f t="array" ref="F115">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E115,"")</f>
@@ -13270,7 +13270,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J115" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K115" s="4" t="str" cm="1">
         <f t="array" ref="K115">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J115)*LEN(J115)&gt;0,"")</f>
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.45">
@@ -13303,7 +13303,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E116" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F116" s="4" t="str" cm="1">
         <f t="array" ref="F116">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E116,"")</f>
@@ -13321,7 +13321,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J116" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K116" s="4" t="str" cm="1">
         <f t="array" ref="K116">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J116)*LEN(J116)&gt;0,"")</f>
@@ -13335,7 +13335,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.45">
@@ -13354,7 +13354,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E117" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F117" s="4" t="str" cm="1">
         <f t="array" ref="F117">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E117,"")</f>
@@ -13372,7 +13372,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J117" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K117" s="4" t="str" cm="1">
         <f t="array" ref="K117">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J117)*LEN(J117)&gt;0,"")</f>
@@ -13386,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.45">
@@ -13405,7 +13405,7 @@
         <v>Grouped summary of subjects</v>
       </c>
       <c r="E118" t="s">
-        <v>179</v>
+        <v>362</v>
       </c>
       <c r="F118" s="4" t="str" cm="1">
         <f t="array" ref="F118">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E118,"")</f>
@@ -13423,7 +13423,7 @@
         <v>Xanomeline High Dose</v>
       </c>
       <c r="J118" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K118" s="4" t="str" cm="1">
         <f t="array" ref="K118">_xlfn._xlws.FILTER(AnalysisGroupings!$G$2:$G$21,(AnalysisGroupings!$F$2:$F$21=AnalysisResults!J118)*LEN(J118)&gt;0,"")</f>
@@ -13437,7 +13437,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.45">
@@ -13456,7 +13456,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E119" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F119" s="4" t="str" cm="1">
         <f t="array" ref="F119">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E119,"")</f>
@@ -13485,7 +13485,7 @@
         <v>86</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.45">
@@ -13504,7 +13504,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E120" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F120" s="4" t="str" cm="1">
         <f t="array" ref="F120">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E120,"")</f>
@@ -13533,7 +13533,7 @@
         <v>84</v>
       </c>
       <c r="O120" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.45">
@@ -13552,7 +13552,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E121" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F121" s="4" t="str" cm="1">
         <f t="array" ref="F121">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E121,"")</f>
@@ -13581,7 +13581,7 @@
         <v>84</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.45">
@@ -13600,7 +13600,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E122" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F122" s="4" t="str" cm="1">
         <f t="array" ref="F122">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E122,"")</f>
@@ -13629,7 +13629,7 @@
         <v>162.5732558</v>
       </c>
       <c r="O122" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.45">
@@ -13648,7 +13648,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E123" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F123" s="4" t="str" cm="1">
         <f t="array" ref="F123">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E123,"")</f>
@@ -13677,7 +13677,7 @@
         <v>165.82023810000001</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.45">
@@ -13696,7 +13696,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E124" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F124" s="4" t="str" cm="1">
         <f t="array" ref="F124">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E124,"")</f>
@@ -13725,7 +13725,7 @@
         <v>163.43333329999999</v>
       </c>
       <c r="O124" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.45">
@@ -13744,7 +13744,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E125" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F125" s="4" t="str" cm="1">
         <f t="array" ref="F125">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E125,"")</f>
@@ -13773,7 +13773,7 @@
         <v>11.522361099999999</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.45">
@@ -13792,7 +13792,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E126" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F126" s="4" t="str" cm="1">
         <f t="array" ref="F126">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E126,"")</f>
@@ -13821,7 +13821,7 @@
         <v>10.41924</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.45">
@@ -13840,7 +13840,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E127" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F127" s="4" t="str" cm="1">
         <f t="array" ref="F127">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E127,"")</f>
@@ -13869,7 +13869,7 @@
         <v>10.1313516</v>
       </c>
       <c r="O127" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.45">
@@ -13888,7 +13888,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E128" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F128" s="4" t="str" cm="1">
         <f t="array" ref="F128">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E128,"")</f>
@@ -13917,7 +13917,7 @@
         <v>162.6</v>
       </c>
       <c r="O128" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.45">
@@ -13936,7 +13936,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E129" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F129" s="4" t="str" cm="1">
         <f t="array" ref="F129">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E129,"")</f>
@@ -13965,7 +13965,7 @@
         <v>162.19999999999999</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.45">
@@ -13984,7 +13984,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E130" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F130" s="4" t="str" cm="1">
         <f t="array" ref="F130">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E130,"")</f>
@@ -14013,7 +14013,7 @@
         <v>165.1</v>
       </c>
       <c r="O130" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.45">
@@ -14032,7 +14032,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E131" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F131" s="4" t="str" cm="1">
         <f t="array" ref="F131">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E131,"")</f>
@@ -14061,7 +14061,7 @@
         <v>153.69999999999999</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.45">
@@ -14080,7 +14080,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E132" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F132" s="4" t="str" cm="1">
         <f t="array" ref="F132">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E132,"")</f>
@@ -14109,7 +14109,7 @@
         <v>157.5</v>
       </c>
       <c r="O132" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.45">
@@ -14128,7 +14128,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E133" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F133" s="4" t="str" cm="1">
         <f t="array" ref="F133">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E133,"")</f>
@@ -14157,7 +14157,7 @@
         <v>157.5</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.45">
@@ -14176,7 +14176,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E134" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F134" s="4" t="str" cm="1">
         <f t="array" ref="F134">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E134,"")</f>
@@ -14205,7 +14205,7 @@
         <v>171.5</v>
       </c>
       <c r="O134" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.45">
@@ -14224,7 +14224,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E135" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F135" s="4" t="str" cm="1">
         <f t="array" ref="F135">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E135,"")</f>
@@ -14253,7 +14253,7 @@
         <v>170.2</v>
       </c>
       <c r="O135" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.45">
@@ -14272,7 +14272,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E136" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F136" s="4" t="str" cm="1">
         <f t="array" ref="F136">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E136,"")</f>
@@ -14301,7 +14301,7 @@
         <v>172.85</v>
       </c>
       <c r="O136" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.45">
@@ -14320,7 +14320,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E137" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F137" s="4" t="str" cm="1">
         <f t="array" ref="F137">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E137,"")</f>
@@ -14349,7 +14349,7 @@
         <v>137.19999999999999</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.45">
@@ -14368,7 +14368,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E138" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F138" s="4" t="str" cm="1">
         <f t="array" ref="F138">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E138,"")</f>
@@ -14397,7 +14397,7 @@
         <v>135.9</v>
       </c>
       <c r="O138" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.45">
@@ -14416,7 +14416,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E139" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F139" s="4" t="str" cm="1">
         <f t="array" ref="F139">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E139,"")</f>
@@ -14445,7 +14445,7 @@
         <v>146.1</v>
       </c>
       <c r="O139" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.45">
@@ -14464,7 +14464,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E140" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F140" s="4" t="str" cm="1">
         <f t="array" ref="F140">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E140,"")</f>
@@ -14493,7 +14493,7 @@
         <v>185.4</v>
       </c>
       <c r="O140" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.45">
@@ -14512,7 +14512,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E141" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F141" s="4" t="str" cm="1">
         <f t="array" ref="F141">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E141,"")</f>
@@ -14541,7 +14541,7 @@
         <v>195.6</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.45">
@@ -14560,7 +14560,7 @@
         <v>Grouped summary of continuous variable</v>
       </c>
       <c r="E142" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F142" s="4" t="str" cm="1">
         <f t="array" ref="F142">_xlfn._xlws.FILTER(AnalysisMethods!$H$2:$H$32,AnalysisMethods!$E$2:$E$32=AnalysisResults!E142,"")</f>
@@ -14589,7 +14589,7 @@
         <v>190.5</v>
       </c>
       <c r="O142" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.45">
